--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna-lenaroth/Desktop/Usability_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna-lenaroth/Documents/GitHub/Usability_Test_Data_Open_Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791D3E1-09F4-4B4B-AD8F-B8B87B7CDB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941ED94D-8D3A-5A43-B314-0565ECBDE718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1560" windowWidth="27440" windowHeight="15360" xr2:uid="{871A07A0-ABDB-E142-897D-3D285874B1F7}"/>
+    <workbookView xWindow="1360" yWindow="1560" windowWidth="27440" windowHeight="15360" xr2:uid="{871A07A0-ABDB-E142-897D-3D285874B1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Usability Test Data" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -872,22 +872,9 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,110 +883,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1336,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D9C53D-D0F9-384B-BA23-9FBDFCD86A62}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="75" workbookViewId="0">
       <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
@@ -1368,1668 +1348,1694 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="37" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="31">
         <v>2.0543981481481483E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="29">
         <v>2.4594907407407409E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="25">
         <v>8</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="27">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="20">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="49" t="s">
+      <c r="U3" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="49" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="31">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="29">
         <v>1.8391203703703705E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="25">
         <v>6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="27">
         <v>0</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="20">
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="49" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="W5" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49" t="s">
+      <c r="R6" s="6"/>
+      <c r="T6" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="49" t="s">
+      <c r="U6" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="49" t="s">
+      <c r="V6" t="s">
         <v>79</v>
       </c>
-      <c r="W6" s="52" t="s">
+      <c r="W6" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="31">
         <v>1.5509259259259259E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="29">
         <v>2.0706018518518519E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="25">
         <v>4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="20">
         <v>2</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="T7" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="U7" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="49" t="s">
+      <c r="V7" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="52" t="s">
+      <c r="W7" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="49" t="s">
+      <c r="T8" t="s">
         <v>85</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="V8" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="54" t="s">
+      <c r="W8" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="27">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="31">
         <v>1.846064814814815E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="29">
         <v>2.3530092592592592E-2</v>
       </c>
-      <c r="G9" s="10">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="25">
+        <v>7</v>
+      </c>
+      <c r="H9" s="27">
         <v>0</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="20">
         <v>4</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="J9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="49" t="s">
+      <c r="U9" t="s">
         <v>94</v>
       </c>
-      <c r="V9" s="49" t="s">
+      <c r="V9" t="s">
         <v>141</v>
       </c>
-      <c r="W9" s="52" t="s">
+      <c r="W9" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="51" t="s">
+      <c r="R10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="49" t="s">
+      <c r="U10" t="s">
         <v>89</v>
       </c>
-      <c r="V10" s="49" t="s">
+      <c r="V10" t="s">
         <v>90</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="27">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="31">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="29">
         <v>2.4814814814814814E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="25">
         <v>5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="27">
         <v>1</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="20">
         <v>2</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="49" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" t="s">
         <v>96</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" t="s">
         <v>97</v>
       </c>
-      <c r="U11" s="49" t="s">
+      <c r="U11" t="s">
         <v>98</v>
       </c>
-      <c r="V11" s="49" t="s">
+      <c r="V11" t="s">
         <v>103</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="51" t="s">
+      <c r="R12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="49" t="s">
+      <c r="T12" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" t="s">
         <v>102</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" t="s">
         <v>104</v>
       </c>
-      <c r="W12" s="52" t="s">
+      <c r="W12" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4" t="s">
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="15"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="6"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="20">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="27">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="31">
         <v>1.7430555555555557E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="29">
         <v>2.3020833333333334E-2</v>
       </c>
-      <c r="G14" s="10">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="25">
+        <v>7</v>
+      </c>
+      <c r="H14" s="27">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="38">
         <v>1</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50" t="s">
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="V14" s="50" t="s">
+      <c r="V14" t="s">
         <v>108</v>
       </c>
-      <c r="W14" s="56" t="s">
+      <c r="W14" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="50" t="s">
+      <c r="U15" t="s">
         <v>112</v>
       </c>
-      <c r="V15" s="50" t="s">
+      <c r="V15" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="56" t="s">
+      <c r="W15" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="4">
         <v>8.8425925925925929E-3</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="3">
         <v>1.5844907407407408E-2</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="50" t="s">
+      <c r="R16" s="6"/>
+      <c r="S16" t="s">
         <v>115</v>
       </c>
-      <c r="T16" s="50" t="s">
+      <c r="T16" t="s">
         <v>116</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" t="s">
         <v>117</v>
       </c>
-      <c r="V16" s="50" t="s">
+      <c r="V16" t="s">
         <v>118</v>
       </c>
-      <c r="W16" s="56" t="s">
+      <c r="W16" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="20">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="27">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="31">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="29">
         <v>1.5983796296296298E-2</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="25">
         <v>3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="J17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="51" t="s">
+      <c r="R17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S17" s="50" t="s">
+      <c r="S17" t="s">
         <v>120</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" t="s">
         <v>121</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" t="s">
         <v>123</v>
       </c>
-      <c r="V17" s="50" t="s">
+      <c r="V17" t="s">
         <v>108</v>
       </c>
-      <c r="W17" s="56" t="s">
+      <c r="W17" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="51" t="s">
+      <c r="R18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" t="s">
         <v>128</v>
       </c>
-      <c r="U18" s="50" t="s">
+      <c r="U18" t="s">
         <v>102</v>
       </c>
-      <c r="V18" s="50" t="s">
+      <c r="V18" t="s">
         <v>129</v>
       </c>
-      <c r="W18" s="57" t="s">
+      <c r="W18" s="19" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="20">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="27">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="31">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="29">
         <v>1.1203703703703704E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="25">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="27">
         <v>0</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="50" t="s">
+      <c r="R19" s="6"/>
+      <c r="S19" t="s">
         <v>135</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" t="s">
         <v>136</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="50" t="s">
+      <c r="V19" t="s">
         <v>129</v>
       </c>
-      <c r="W19" s="56" t="s">
+      <c r="W19" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="51" t="s">
+      <c r="R20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" t="s">
         <v>131</v>
       </c>
-      <c r="T20" s="49" t="s">
+      <c r="T20" t="s">
         <v>132</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="49" t="s">
+      <c r="V20" t="s">
         <v>133</v>
       </c>
-      <c r="W20" s="52" t="s">
+      <c r="W20" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="20">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="27">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="31">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="29">
         <v>1.6168981481481482E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="25">
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="27">
         <v>0</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="J21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="49" t="s">
+      <c r="R21" s="6"/>
+      <c r="S21" t="s">
         <v>138</v>
       </c>
-      <c r="T21" s="49" t="s">
+      <c r="T21" t="s">
         <v>139</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" t="s">
         <v>140</v>
       </c>
-      <c r="V21" s="49" t="s">
+      <c r="V21" t="s">
         <v>142</v>
       </c>
-      <c r="W21" s="52" t="s">
+      <c r="W21" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="49" t="s">
+      <c r="R22" s="6"/>
+      <c r="S22" t="s">
         <v>144</v>
       </c>
-      <c r="T22" s="49" t="s">
+      <c r="T22" t="s">
         <v>145</v>
       </c>
-      <c r="U22" s="49" t="s">
+      <c r="U22" t="s">
         <v>146</v>
       </c>
-      <c r="V22" s="49" t="s">
+      <c r="V22" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="54" t="s">
+      <c r="W22" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="20">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="27">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="31">
         <v>2.7430555555555554E-3</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="29">
         <v>1.5787037037037037E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="25">
         <v>1</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="27">
         <v>0</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="J23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="49" t="s">
+      <c r="R23" s="6"/>
+      <c r="S23" t="s">
         <v>151</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9" t="s">
+      <c r="V23" t="s">
         <v>152</v>
       </c>
-      <c r="W23" s="15"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="9" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="49" t="s">
+      <c r="R24" s="6"/>
+      <c r="S24" t="s">
         <v>148</v>
       </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9" t="s">
+      <c r="V24" t="s">
         <v>149</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="20">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="27">
         <v>4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="31">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="29">
         <v>1.2766203703703703E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="25">
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="27">
         <v>0</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" t="s">
         <v>154</v>
       </c>
-      <c r="T25" s="49" t="s">
+      <c r="T25" t="s">
         <v>155</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" t="s">
         <v>156</v>
       </c>
-      <c r="V25" s="49" t="s">
+      <c r="V25" t="s">
         <v>157</v>
       </c>
-      <c r="W25" s="54" t="s">
+      <c r="W25" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="11" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="9" t="s">
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" t="s">
         <v>63</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="R26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" t="s">
         <v>159</v>
       </c>
-      <c r="T26" s="49" t="s">
+      <c r="T26" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" t="s">
         <v>161</v>
       </c>
-      <c r="V26" s="49" t="s">
+      <c r="V26" t="s">
         <v>162</v>
       </c>
-      <c r="W26" s="52" t="s">
+      <c r="W26" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="20">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="27">
         <v>4</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="31">
         <v>3.8773148148148148E-3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="29">
         <v>1.9502314814814816E-2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="25">
         <v>4</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="27">
         <v>0</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="J27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="49" t="s">
+      <c r="R27" s="6"/>
+      <c r="S27" t="s">
         <v>164</v>
       </c>
-      <c r="T27" s="49" t="s">
+      <c r="T27" t="s">
         <v>165</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="49" t="s">
+      <c r="V27" t="s">
         <v>166</v>
       </c>
-      <c r="W27" s="52" t="s">
+      <c r="W27" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="18" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" s="19" t="s">
+      <c r="Q28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="58" t="s">
+      <c r="R28" s="7"/>
+      <c r="S28" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="58" t="s">
+      <c r="T28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="U28" s="58" t="s">
+      <c r="U28" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="58" t="s">
+      <c r="V28" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="W28" s="59" t="s">
+      <c r="W28" s="11" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -3054,79 +3060,30 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
